--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H2">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I2">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J2">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>6234.124169445134</v>
+        <v>10706.76318595206</v>
       </c>
       <c r="R2">
-        <v>6234.124169445134</v>
+        <v>96360.86867356853</v>
       </c>
       <c r="S2">
-        <v>0.003868002221930008</v>
+        <v>0.006460158426743152</v>
       </c>
       <c r="T2">
-        <v>0.003868002221930008</v>
+        <v>0.006460158426743154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H3">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I3">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J3">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>6635.860879242066</v>
+        <v>11285.32501356601</v>
       </c>
       <c r="R3">
-        <v>6635.860879242066</v>
+        <v>101567.9251220941</v>
       </c>
       <c r="S3">
-        <v>0.004117262333517373</v>
+        <v>0.006809246288418861</v>
       </c>
       <c r="T3">
-        <v>0.004117262333517373</v>
+        <v>0.006809246288418862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H4">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I4">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J4">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>4278.968836586652</v>
+        <v>7291.325501447343</v>
       </c>
       <c r="R4">
-        <v>4278.968836586652</v>
+        <v>65621.92951302609</v>
       </c>
       <c r="S4">
-        <v>0.002654913588119878</v>
+        <v>0.004399379818366069</v>
       </c>
       <c r="T4">
-        <v>0.002654913588119878</v>
+        <v>0.004399379818366071</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H5">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I5">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J5">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>3317.820306557006</v>
+        <v>5687.051696768071</v>
       </c>
       <c r="R5">
-        <v>3317.820306557006</v>
+        <v>51183.46527091264</v>
       </c>
       <c r="S5">
-        <v>0.002058562833994567</v>
+        <v>0.003431406327395416</v>
       </c>
       <c r="T5">
-        <v>0.002058562833994567</v>
+        <v>0.003431406327395417</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H6">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I6">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J6">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>2193.404657813914</v>
+        <v>3906.627123062546</v>
       </c>
       <c r="R6">
-        <v>2193.404657813914</v>
+        <v>35159.64410756292</v>
       </c>
       <c r="S6">
-        <v>0.001360911951609551</v>
+        <v>0.002357148438877302</v>
       </c>
       <c r="T6">
-        <v>0.001360911951609551</v>
+        <v>0.002357148438877303</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2618.64346320462</v>
+        <v>2623.51945</v>
       </c>
       <c r="H7">
-        <v>2618.64346320462</v>
+        <v>7870.55835</v>
       </c>
       <c r="I7">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J7">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>424504.3673409596</v>
+        <v>429501.5777201148</v>
       </c>
       <c r="R7">
-        <v>424504.3673409596</v>
+        <v>3865514.199481032</v>
       </c>
       <c r="S7">
-        <v>0.26338645036003</v>
+        <v>0.2591491180311702</v>
       </c>
       <c r="T7">
-        <v>0.26338645036003</v>
+        <v>0.2591491180311702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2618.64346320462</v>
+        <v>2623.51945</v>
       </c>
       <c r="H8">
-        <v>2618.64346320462</v>
+        <v>7870.55835</v>
       </c>
       <c r="I8">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J8">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>451860.0925711108</v>
+        <v>452710.5731422667</v>
       </c>
       <c r="R8">
-        <v>451860.0925711108</v>
+        <v>4074395.1582804</v>
       </c>
       <c r="S8">
-        <v>0.28035948507938</v>
+        <v>0.2731527701852947</v>
       </c>
       <c r="T8">
-        <v>0.28035948507938</v>
+        <v>0.2731527701852947</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2618.64346320462</v>
+        <v>2623.51945</v>
       </c>
       <c r="H9">
-        <v>2618.64346320462</v>
+        <v>7870.55835</v>
       </c>
       <c r="I9">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J9">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>291370.6736464587</v>
+        <v>292491.3675732963</v>
       </c>
       <c r="R9">
-        <v>291370.6736464587</v>
+        <v>2632422.308159667</v>
       </c>
       <c r="S9">
-        <v>0.1807827984231594</v>
+        <v>0.1764810279410545</v>
       </c>
       <c r="T9">
-        <v>0.1807827984231594</v>
+        <v>0.1764810279410545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2618.64346320462</v>
+        <v>2623.51945</v>
       </c>
       <c r="H10">
-        <v>2618.64346320462</v>
+        <v>7870.55835</v>
       </c>
       <c r="I10">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J10">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>225922.5469215072</v>
+        <v>228135.9579842564</v>
       </c>
       <c r="R10">
-        <v>225922.5469215072</v>
+        <v>2053223.621858307</v>
       </c>
       <c r="S10">
-        <v>0.1401750895112913</v>
+        <v>0.1376507919170965</v>
       </c>
       <c r="T10">
-        <v>0.1401750895112913</v>
+        <v>0.1376507919170965</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2618.64346320462</v>
+        <v>2623.51945</v>
       </c>
       <c r="H11">
-        <v>2618.64346320462</v>
+        <v>7870.55835</v>
       </c>
       <c r="I11">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J11">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>149356.9635894632</v>
+        <v>156714.2640383668</v>
       </c>
       <c r="R11">
-        <v>149356.9635894632</v>
+        <v>1410428.376345301</v>
       </c>
       <c r="S11">
-        <v>0.09266948352685475</v>
+        <v>0.09455695954372444</v>
       </c>
       <c r="T11">
-        <v>0.09266948352685475</v>
+        <v>0.09455695954372444</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.202935382502835</v>
+        <v>0.220081</v>
       </c>
       <c r="H12">
-        <v>0.202935382502835</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I12">
-        <v>7.419296325133949E-05</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J12">
-        <v>7.419296325133949E-05</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>32.89755072461734</v>
+        <v>36.02989744414533</v>
       </c>
       <c r="R12">
-        <v>32.89755072461734</v>
+        <v>324.2690769973079</v>
       </c>
       <c r="S12">
-        <v>2.041149579960976E-05</v>
+        <v>2.173942222742734E-05</v>
       </c>
       <c r="T12">
-        <v>2.041149579960976E-05</v>
+        <v>2.173942222742735E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.202935382502835</v>
+        <v>0.220081</v>
       </c>
       <c r="H13">
-        <v>0.202935382502835</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I13">
-        <v>7.419296325133949E-05</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J13">
-        <v>7.419296325133949E-05</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>35.01752033530634</v>
+        <v>37.97684657825699</v>
       </c>
       <c r="R13">
-        <v>35.01752033530634</v>
+        <v>341.791619204313</v>
       </c>
       <c r="S13">
-        <v>2.172684450645128E-05</v>
+        <v>2.291415633116416E-05</v>
       </c>
       <c r="T13">
-        <v>2.172684450645128E-05</v>
+        <v>2.291415633116417E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.202935382502835</v>
+        <v>0.220081</v>
       </c>
       <c r="H14">
-        <v>0.202935382502835</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I14">
-        <v>7.419296325133949E-05</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J14">
-        <v>7.419296325133949E-05</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>22.58017173295976</v>
+        <v>24.53642669464433</v>
       </c>
       <c r="R14">
-        <v>22.58017173295976</v>
+        <v>220.827840251799</v>
       </c>
       <c r="S14">
-        <v>1.401001200180188E-05</v>
+        <v>1.480458668232675E-05</v>
       </c>
       <c r="T14">
-        <v>1.401001200180188E-05</v>
+        <v>1.480458668232676E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.202935382502835</v>
+        <v>0.220081</v>
       </c>
       <c r="H15">
-        <v>0.202935382502835</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I15">
-        <v>7.419296325133949E-05</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J15">
-        <v>7.419296325133949E-05</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>17.50817899410548</v>
+        <v>19.13779970990233</v>
       </c>
       <c r="R15">
-        <v>17.50817899410548</v>
+        <v>172.240197389121</v>
       </c>
       <c r="S15">
-        <v>1.086306166038009E-05</v>
+        <v>1.154720767780338E-05</v>
       </c>
       <c r="T15">
-        <v>1.086306166038009E-05</v>
+        <v>1.154720767780338E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.202935382502835</v>
+        <v>0.220081</v>
       </c>
       <c r="H16">
-        <v>0.202935382502835</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I16">
-        <v>7.419296325133949E-05</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J16">
-        <v>7.419296325133949E-05</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>11.57462364059193</v>
+        <v>13.14639841676333</v>
       </c>
       <c r="R16">
-        <v>11.57462364059193</v>
+        <v>118.31758575087</v>
       </c>
       <c r="S16">
-        <v>7.181549283096485E-06</v>
+        <v>7.932165402220445E-06</v>
       </c>
       <c r="T16">
-        <v>7.181549283096485E-06</v>
+        <v>7.932165402220447E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>77.93470691999789</v>
+        <v>0.250186</v>
       </c>
       <c r="H17">
-        <v>77.93470691999789</v>
+        <v>0.7505580000000001</v>
       </c>
       <c r="I17">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244271E-05</v>
       </c>
       <c r="J17">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244272E-05</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>12633.87854049059</v>
+        <v>40.95844676260533</v>
       </c>
       <c r="R17">
-        <v>12633.87854049059</v>
+        <v>368.626020863448</v>
       </c>
       <c r="S17">
-        <v>0.00783877076201402</v>
+        <v>2.471316964840735E-05</v>
       </c>
       <c r="T17">
-        <v>0.00783877076201402</v>
+        <v>2.471316964840736E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>77.93470691999789</v>
+        <v>0.250186</v>
       </c>
       <c r="H18">
-        <v>77.93470691999789</v>
+        <v>0.7505580000000001</v>
       </c>
       <c r="I18">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244271E-05</v>
       </c>
       <c r="J18">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244272E-05</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>13448.025429272</v>
+        <v>43.171720130442</v>
       </c>
       <c r="R18">
-        <v>13448.025429272</v>
+        <v>388.545481173978</v>
       </c>
       <c r="S18">
-        <v>0.008343913407426582</v>
+        <v>2.604859627077594E-05</v>
       </c>
       <c r="T18">
-        <v>0.008343913407426582</v>
+        <v>2.604859627077594E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>77.93470691999789</v>
+        <v>0.250186</v>
       </c>
       <c r="H19">
-        <v>77.93470691999789</v>
+        <v>0.7505580000000001</v>
       </c>
       <c r="I19">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244271E-05</v>
       </c>
       <c r="J19">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244272E-05</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>8671.622683574442</v>
+        <v>27.89277788189933</v>
       </c>
       <c r="R19">
-        <v>8671.622683574442</v>
+        <v>251.035000937094</v>
       </c>
       <c r="S19">
-        <v>0.005380363768209958</v>
+        <v>1.682971416753196E-05</v>
       </c>
       <c r="T19">
-        <v>0.005380363768209958</v>
+        <v>1.682971416753197E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>77.93470691999789</v>
+        <v>0.250186</v>
       </c>
       <c r="H20">
-        <v>77.93470691999789</v>
+        <v>0.7505580000000001</v>
       </c>
       <c r="I20">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244271E-05</v>
       </c>
       <c r="J20">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244272E-05</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>6723.789522457536</v>
+        <v>21.75566976804733</v>
       </c>
       <c r="R20">
-        <v>6723.789522457536</v>
+        <v>195.801027912426</v>
       </c>
       <c r="S20">
-        <v>0.004171818222698355</v>
+        <v>1.312675651273357E-05</v>
       </c>
       <c r="T20">
-        <v>0.004171818222698355</v>
+        <v>1.312675651273358E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.250186</v>
+      </c>
+      <c r="H21">
+        <v>0.7505580000000001</v>
+      </c>
+      <c r="I21">
+        <v>8.973544723244271E-05</v>
+      </c>
+      <c r="J21">
+        <v>8.973544723244272E-05</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N21">
+        <v>179.20309</v>
+      </c>
+      <c r="O21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q21">
+        <v>14.94470142491333</v>
+      </c>
+      <c r="R21">
+        <v>134.50231282422</v>
+      </c>
+      <c r="S21">
+        <v>9.017210632993874E-06</v>
+      </c>
+      <c r="T21">
+        <v>9.017210632993876E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H22">
+        <v>295.950316</v>
+      </c>
+      <c r="I22">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J22">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>163.7119853333333</v>
+      </c>
+      <c r="N22">
+        <v>491.135956</v>
+      </c>
+      <c r="O22">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="P22">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="Q22">
+        <v>16150.20459746245</v>
+      </c>
+      <c r="R22">
+        <v>145351.8413771621</v>
+      </c>
+      <c r="S22">
+        <v>0.009744577190314093</v>
+      </c>
+      <c r="T22">
+        <v>0.009744577190314093</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H23">
+        <v>295.950316</v>
+      </c>
+      <c r="I23">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J23">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>172.558497</v>
+      </c>
+      <c r="N23">
+        <v>517.675491</v>
+      </c>
+      <c r="O23">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="P23">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="Q23">
+        <v>17022.91390521168</v>
+      </c>
+      <c r="R23">
+        <v>153206.2251469051</v>
+      </c>
+      <c r="S23">
+        <v>0.01027114533146347</v>
+      </c>
+      <c r="T23">
+        <v>0.01027114533146347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H24">
+        <v>295.950316</v>
+      </c>
+      <c r="I24">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J24">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>111.4881643333333</v>
+      </c>
+      <c r="N24">
+        <v>334.464493</v>
+      </c>
+      <c r="O24">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="P24">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="Q24">
+        <v>10998.31915490331</v>
+      </c>
+      <c r="R24">
+        <v>98984.87239412978</v>
+      </c>
+      <c r="S24">
+        <v>0.006636075061581864</v>
+      </c>
+      <c r="T24">
+        <v>0.006636075061581865</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>77.93470691999789</v>
-      </c>
-      <c r="H21">
-        <v>77.93470691999789</v>
-      </c>
-      <c r="I21">
-        <v>0.02849284720686172</v>
-      </c>
-      <c r="J21">
-        <v>0.02849284720686172</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="N21">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="O21">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="P21">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="Q21">
-        <v>4445.084390969669</v>
-      </c>
-      <c r="R21">
-        <v>4445.084390969669</v>
-      </c>
-      <c r="S21">
-        <v>0.002757981046512807</v>
-      </c>
-      <c r="T21">
-        <v>0.002757981046512807</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H25">
+        <v>295.950316</v>
+      </c>
+      <c r="I25">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J25">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>86.95798233333333</v>
+      </c>
+      <c r="N25">
+        <v>260.873947</v>
+      </c>
+      <c r="O25">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="P25">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="Q25">
+        <v>8578.414116757473</v>
+      </c>
+      <c r="R25">
+        <v>77205.72705081725</v>
+      </c>
+      <c r="S25">
+        <v>0.00517597272695589</v>
+      </c>
+      <c r="T25">
+        <v>0.00517597272695589</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H26">
+        <v>295.950316</v>
+      </c>
+      <c r="I26">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J26">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N26">
+        <v>179.20309</v>
+      </c>
+      <c r="O26">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P26">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q26">
+        <v>5892.801234852937</v>
+      </c>
+      <c r="R26">
+        <v>53035.21111367643</v>
+      </c>
+      <c r="S26">
+        <v>0.003555549785990019</v>
+      </c>
+      <c r="T26">
+        <v>0.003555549785990019</v>
       </c>
     </row>
   </sheetData>
